--- a/File_for_Import/Reports/Расчетные параметры ГПА №1.xlsx
+++ b/File_for_Import/Reports/Расчетные параметры ГПА №1.xlsx
@@ -535,7 +535,7 @@
         <v/>
       </c>
       <c r="C4" s="5">
-        <f>"AE.AE_NvdRate"</f>
+        <f>"AE.AE_dTm_outOT"</f>
         <v/>
       </c>
       <c r="D4" s="6">
@@ -543,7 +543,7 @@
         <v/>
       </c>
       <c r="E4" s="7">
-        <f>"Ускорение ротора ТК  "</f>
+        <f>"Подогрев масла на сливе из опоры турбины  "</f>
         <v/>
       </c>
       <c r="F4" s="6">
@@ -565,7 +565,7 @@
         <v/>
       </c>
       <c r="C5" s="5">
-        <f>"AE.AE_conturcur"</f>
+        <f>"AE.AE_dPmsauF17"</f>
         <v/>
       </c>
       <c r="D5" s="6">
@@ -573,7 +573,7 @@
         <v/>
       </c>
       <c r="E5" s="7">
-        <f>"Метка контура регулятора  "</f>
+        <f>"dP на фильтре Ф17 грубой очистки САУ  "</f>
         <v/>
       </c>
       <c r="F5" s="6">
@@ -595,7 +595,7 @@
         <v/>
       </c>
       <c r="C6" s="5">
-        <f>"AE.AE_contursum"</f>
+        <f>"AE.AE_dPmsauF18"</f>
         <v/>
       </c>
       <c r="D6" s="6">
@@ -603,7 +603,7 @@
         <v/>
       </c>
       <c r="E6" s="7">
-        <f>"Метка контура регулятора суммарная  "</f>
+        <f>"dP на фильтре Ф18 тонкой очистки САУ  "</f>
         <v/>
       </c>
       <c r="F6" s="6">
@@ -625,7 +625,7 @@
         <v/>
       </c>
       <c r="C7" s="5">
-        <f>"AE.AE_condition"</f>
+        <f>"AE.AE_SurgeRes"</f>
         <v/>
       </c>
       <c r="D7" s="6">
@@ -633,7 +633,7 @@
         <v/>
       </c>
       <c r="E7" s="7">
-        <f>"Состояние регулятора  "</f>
+        <f>"Помпажный запас  "</f>
         <v/>
       </c>
       <c r="F7" s="6">
@@ -655,7 +655,7 @@
         <v/>
       </c>
       <c r="C8" s="5">
-        <f>"AE.AE_Nvd"</f>
+        <f>"AE.AE_Pv_outD"</f>
         <v/>
       </c>
       <c r="D8" s="6">
@@ -663,7 +663,7 @@
         <v/>
       </c>
       <c r="E8" s="7">
-        <f>"Расчетная Nтк  "</f>
+        <f>"Давление воздуха за КВД (расчетное)  "</f>
         <v/>
       </c>
       <c r="F8" s="6">
@@ -685,7 +685,7 @@
         <v/>
       </c>
       <c r="C9" s="5">
-        <f>"AE.AE_NvdNorm"</f>
+        <f>"AE.AE_Tv_inD"</f>
         <v/>
       </c>
       <c r="D9" s="6">
@@ -693,7 +693,7 @@
         <v/>
       </c>
       <c r="E9" s="7">
-        <f>"Расчетная приведенная Nтк  "</f>
+        <f>"Температура воздуха на входе в ТК  "</f>
         <v/>
       </c>
       <c r="F9" s="6">
@@ -715,7 +715,7 @@
         <v/>
       </c>
       <c r="C10" s="5">
-        <f>"AE.AE_Nst"</f>
+        <f>"AE.AE_Ttg_inSK"</f>
         <v/>
       </c>
       <c r="D10" s="6">
@@ -723,7 +723,7 @@
         <v/>
       </c>
       <c r="E10" s="7">
-        <f>"Расчетная Nст  "</f>
+        <f>"Температура газа на входе в СК (расчетное)  "</f>
         <v/>
       </c>
       <c r="F10" s="6">
@@ -745,7 +745,7 @@
         <v/>
       </c>
       <c r="C11" s="5">
-        <f>"AE.AE_Tvd"</f>
+        <f>"AE.AE_Ptg_inDG"</f>
         <v/>
       </c>
       <c r="D11" s="6">
@@ -753,7 +753,7 @@
         <v/>
       </c>
       <c r="E11" s="7">
-        <f>"Расчетное Tв на входе в ОК  "</f>
+        <f>"Давление газа перед ТРК (расчетное)  "</f>
         <v/>
       </c>
       <c r="F11" s="6">
@@ -775,7 +775,7 @@
         <v/>
       </c>
       <c r="C12" s="5">
-        <f>"AE.AE_Tst"</f>
+        <f>"AE.AE_Ptg_inSK"</f>
         <v/>
       </c>
       <c r="D12" s="6">
@@ -783,7 +783,7 @@
         <v/>
       </c>
       <c r="E12" s="7">
-        <f>"Расчетная Тг перед СТ  "</f>
+        <f>"Давление газа перед СК (расчетное)  "</f>
         <v/>
       </c>
       <c r="F12" s="6">
@@ -805,7 +805,7 @@
         <v/>
       </c>
       <c r="C13" s="5">
-        <f>"AE.AE_Surge_Res"</f>
+        <f>"AE.AE_Ptg_outDG1"</f>
         <v/>
       </c>
       <c r="D13" s="6">
@@ -813,7 +813,7 @@
         <v/>
       </c>
       <c r="E13" s="7">
-        <f>"Помпажный запас  "</f>
+        <f>"Давление газа после ТРК (расчетное)  "</f>
         <v/>
       </c>
       <c r="F13" s="6">
@@ -835,7 +835,7 @@
         <v/>
       </c>
       <c r="C14" s="5">
-        <f>"AE.AE_Press_Ratio"</f>
+        <f>"AE.AE_Nnd"</f>
         <v/>
       </c>
       <c r="D14" s="6">
@@ -843,7 +843,7 @@
         <v/>
       </c>
       <c r="E14" s="7">
-        <f>"Степень сжатия  "</f>
+        <f>"Обороты НД  "</f>
         <v/>
       </c>
       <c r="F14" s="6">
@@ -865,7 +865,7 @@
         <v/>
       </c>
       <c r="C15" s="5">
-        <f>"AE.AE_Q"</f>
+        <f>"AE.AE_NndNorm"</f>
         <v/>
       </c>
       <c r="D15" s="6">
@@ -873,7 +873,7 @@
         <v/>
       </c>
       <c r="E15" s="7">
-        <f>"Расход  "</f>
+        <f>"Приведенные обороты НД  "</f>
         <v/>
       </c>
       <c r="F15" s="6">
@@ -895,7 +895,7 @@
         <v/>
       </c>
       <c r="C16" s="5">
-        <f>"AE.AE_KprT"</f>
+        <f>"AE.AE_Nvd"</f>
         <v/>
       </c>
       <c r="D16" s="6">
@@ -903,7 +903,7 @@
         <v/>
       </c>
       <c r="E16" s="7">
-        <f>"Коэффициент приведения по Тв  "</f>
+        <f>"Обороты ВД  "</f>
         <v/>
       </c>
       <c r="F16" s="6">
@@ -925,7 +925,7 @@
         <v/>
       </c>
       <c r="C17" s="5">
-        <f>"AE.AE_KprP"</f>
+        <f>"AE.AE_NvdNorm"</f>
         <v/>
       </c>
       <c r="D17" s="6">
@@ -933,7 +933,7 @@
         <v/>
       </c>
       <c r="E17" s="7">
-        <f>"Коэффициент приведения по Ртг  "</f>
+        <f>"Приведенные обороты ВД  "</f>
         <v/>
       </c>
       <c r="F17" s="6">
@@ -955,7 +955,7 @@
         <v/>
       </c>
       <c r="C18" s="5">
-        <f>"AE.AE_Ptg"</f>
+        <f>"AE.AE_Nst"</f>
         <v/>
       </c>
       <c r="D18" s="6">
@@ -963,7 +963,7 @@
         <v/>
       </c>
       <c r="E18" s="7">
-        <f>"Расчетное Pтг  "</f>
+        <f>"Обороты СТ  "</f>
         <v/>
       </c>
       <c r="F18" s="6">
@@ -985,7 +985,7 @@
         <v/>
       </c>
       <c r="C19" s="5">
-        <f>"AE.AE_Pkd"</f>
+        <f>"AE.AE_Tst"</f>
         <v/>
       </c>
       <c r="D19" s="6">
@@ -993,7 +993,7 @@
         <v/>
       </c>
       <c r="E19" s="7">
-        <f>"Расчетное Рв за ОК  "</f>
+        <f>"Температура газа за ТНД  "</f>
         <v/>
       </c>
       <c r="F19" s="6">
@@ -1015,7 +1015,7 @@
         <v/>
       </c>
       <c r="C20" s="5">
-        <f>"AE.AE_Gt"</f>
+        <f>"AE.AE_POS_NA"</f>
         <v/>
       </c>
       <c r="D20" s="6">
@@ -1023,7 +1023,7 @@
         <v/>
       </c>
       <c r="E20" s="7">
-        <f>"Расход топлива  "</f>
+        <f>"Положение НА КВД  "</f>
         <v/>
       </c>
       <c r="F20" s="6">
@@ -1045,7 +1045,7 @@
         <v/>
       </c>
       <c r="C21" s="5">
-        <f>"AE.AE_timeNvd"</f>
+        <f>"AE.AE_POS_PV"</f>
         <v/>
       </c>
       <c r="D21" s="6">
@@ -1053,7 +1053,7 @@
         <v/>
       </c>
       <c r="E21" s="7">
-        <f>"Время выбега ротора ТК  "</f>
+        <f>"Положение КПВ  "</f>
         <v/>
       </c>
       <c r="F21" s="6">
@@ -1121,7 +1121,7 @@
         <v/>
       </c>
       <c r="C28" s="5">
-        <f>"AE.AE_timeNst"</f>
+        <f>"AE.AE_POS_RA"</f>
         <v/>
       </c>
       <c r="D28" s="6">
@@ -1129,7 +1129,7 @@
         <v/>
       </c>
       <c r="E28" s="7">
-        <f>"Время выбега ротора СТ  "</f>
+        <f>"Положение НА КНД (РВНА)  "</f>
         <v/>
       </c>
       <c r="F28" s="6">
@@ -1151,7 +1151,7 @@
         <v/>
       </c>
       <c r="C29" s="5">
-        <f>"AE.AE_Lm_MBD"</f>
+        <f>"AE.AE_TaBET"</f>
         <v/>
       </c>
       <c r="D29" s="6">
@@ -1159,7 +1159,7 @@
         <v/>
       </c>
       <c r="E29" s="7">
-        <f>"Уровень в МБД  "</f>
+        <f>"Тв в БЭТ  "</f>
         <v/>
       </c>
       <c r="F29" s="6">
@@ -1181,7 +1181,7 @@
         <v/>
       </c>
       <c r="C30" s="5">
-        <f>"AE.AE_Lm_MBN"</f>
+        <f>"AE.AE_TaBSAU"</f>
         <v/>
       </c>
       <c r="D30" s="6">
@@ -1189,7 +1189,7 @@
         <v/>
       </c>
       <c r="E30" s="7">
-        <f>"Уровень в МБН  "</f>
+        <f>"Тв в БСАУ  "</f>
         <v/>
       </c>
       <c r="F30" s="6">
